--- a/spreadcheek.xlsx
+++ b/spreadcheek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dipl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dipl\diplomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A6AC1F-3E45-4181-8F4D-C8D510AFFED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BAA11A-D6B8-48A4-9B59-31AB30B5F48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="540" windowWidth="30960" windowHeight="18435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="оригинальный продууукт" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'оригинальный продууукт'!$Y$2:$Y$117</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Лист2!$A$1:$A$5</definedName>
-    <definedName name="activityVect" localSheetId="4">'вект акт(слишком много призн)'!$B$2:$AE$117</definedName>
+    <definedName name="activityVect_1" localSheetId="4">'вект акт(слишком много призн)'!$B$1:$S$117</definedName>
     <definedName name="themeVect_1" localSheetId="1">'векторизация тематик( 13 призн)'!$B$2:$N$117</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -78,21 +78,9 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{8D85A466-16E8-4195-9248-7908EA5CF1D7}" name="activityVect" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="866" sourceFile="D:\dipl\activityVect.csv" decimal="," thousands=" " comma="1">
-      <textFields count="30">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="1" xr16:uid="{3B7012F4-9A62-470F-8628-9FC3013C1E51}" name="activityVect" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="D:\dipl\diplomat\activityVect.csv" decimal="," thousands=" ">
+      <textFields count="18">
         <textField/>
         <textField/>
         <textField/>
@@ -137,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="306">
   <si>
     <t>продолжительность</t>
   </si>
@@ -1023,6 +1011,39 @@
   <si>
     <t>религия</t>
   </si>
+  <si>
+    <t>анимационная шоу программа</t>
+  </si>
+  <si>
+    <t>катание на оленьих упряжках</t>
+  </si>
+  <si>
+    <t>класс</t>
+  </si>
+  <si>
+    <t>концерт</t>
+  </si>
+  <si>
+    <t>новогодняя программа</t>
+  </si>
+  <si>
+    <t>олени</t>
+  </si>
+  <si>
+    <t>посещение достопримечательностей</t>
+  </si>
+  <si>
+    <t>посещение резиденции деда мороза</t>
+  </si>
+  <si>
+    <t>развлекательные программы</t>
+  </si>
+  <si>
+    <t>развлечения</t>
+  </si>
+  <si>
+    <t>собаки</t>
+  </si>
 </sst>
 </file>
 
@@ -1824,7 +1845,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="activityVect" connectionId="1" xr16:uid="{B1ED6188-D848-41BD-B1A0-907FEC4E98A0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="activityVect_1" connectionId="1" xr16:uid="{EC5E97BE-7285-4AA1-8F16-2A52473D6B69}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2092,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="J5" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17051,7 +17072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BD4792-5486-4CB6-A50F-9FA359A46D62}">
   <dimension ref="A1:AM122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -32528,7 +32549,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32565,26 +32586,97 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A58B035-38B7-40A0-B702-1077B9ECD932}">
-  <dimension ref="B2:AE117"/>
+  <dimension ref="B1:S117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="31" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="31" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>301</v>
+      </c>
+      <c r="N1" t="s">
+        <v>302</v>
+      </c>
+      <c r="O1" t="s">
+        <v>303</v>
+      </c>
+      <c r="P1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>305</v>
+      </c>
+      <c r="R1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -32602,7 +32694,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -32614,63 +32706,27 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -32679,7 +32735,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -32700,10 +32756,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -32712,10 +32768,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -32723,46 +32779,10 @@
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -32771,7 +32791,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -32792,10 +32812,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -32804,10 +32824,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -32815,46 +32835,10 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -32863,7 +32847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -32884,10 +32868,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -32896,10 +32880,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -32907,46 +32891,10 @@
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -32976,7 +32924,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -32988,7 +32936,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -32997,48 +32945,12 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -33089,48 +33001,12 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -33181,48 +33057,12 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -33249,7 +33089,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -33270,51 +33110,15 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -33365,48 +33169,12 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -33436,7 +33204,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -33448,7 +33216,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -33457,48 +33225,12 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -33549,48 +33281,12 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -33617,7 +33313,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -33638,51 +33334,15 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -33733,48 +33393,12 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -33825,48 +33449,12 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -33917,48 +33505,12 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -34009,48 +33561,12 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -34101,54 +33617,18 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -34166,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -34178,63 +33658,27 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -34252,10 +33696,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -34285,48 +33729,12 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -34377,48 +33785,12 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -34436,10 +33808,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -34469,48 +33841,12 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -34561,48 +33897,12 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -34653,48 +33953,12 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -34721,7 +33985,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -34742,51 +34006,15 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -34813,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -34834,51 +34062,15 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -34908,7 +34100,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -34920,7 +34112,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -34931,46 +34123,10 @@
       <c r="S27">
         <v>0</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -34997,7 +34153,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -35018,51 +34174,15 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -35071,7 +34191,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -35095,7 +34215,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -35107,54 +34227,18 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -35163,7 +34247,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -35187,7 +34271,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -35199,54 +34283,18 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -35297,48 +34345,12 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -35389,48 +34401,12 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -35481,48 +34457,12 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -35537,13 +34477,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -35573,48 +34513,12 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -35629,13 +34533,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -35665,48 +34569,12 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -35721,13 +34589,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -35757,48 +34625,12 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -35849,48 +34681,12 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -35941,48 +34737,12 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -36033,48 +34793,12 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -36125,48 +34849,12 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -36217,48 +34905,12 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -36309,54 +34961,18 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -36374,7 +34990,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -36386,63 +35002,27 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -36454,10 +35034,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -36469,7 +35049,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -36493,48 +35073,12 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>1</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>1</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -36546,10 +35090,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -36561,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -36585,48 +35129,12 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>1</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>1</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -36635,13 +35143,13 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -36653,7 +35161,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -36662,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -36677,48 +35185,12 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>1</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>2</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -36748,7 +35220,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -36760,7 +35232,7 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -36769,48 +35241,12 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -36861,48 +35297,12 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -36953,48 +35353,12 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -37045,48 +35409,12 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -37137,48 +35465,12 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -37229,48 +35521,12 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -37321,48 +35577,12 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -37413,48 +35633,12 @@
         <v>0</v>
       </c>
       <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -37493,7 +35677,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -37507,46 +35691,10 @@
       <c r="S55">
         <v>1</v>
       </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -37585,7 +35733,7 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -37599,46 +35747,10 @@
       <c r="S56">
         <v>1</v>
       </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -37677,7 +35789,7 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -37691,46 +35803,10 @@
       <c r="S57">
         <v>1</v>
       </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>1</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -37769,7 +35845,7 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -37783,46 +35859,10 @@
       <c r="S58">
         <v>1</v>
       </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>1</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -37861,7 +35901,7 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -37875,46 +35915,10 @@
       <c r="S59">
         <v>1</v>
       </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>1</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -37965,48 +35969,12 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -38057,48 +36025,12 @@
         <v>0</v>
       </c>
       <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -38128,7 +36060,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -38140,7 +36072,7 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -38149,48 +36081,12 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>1</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -38220,7 +36116,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -38232,7 +36128,7 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -38241,48 +36137,12 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>1</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -38294,10 +36154,10 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -38309,7 +36169,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -38335,46 +36195,10 @@
       <c r="S64">
         <v>0</v>
       </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>1</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>1</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -38425,48 +36249,12 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -38517,48 +36305,12 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -38588,7 +36340,7 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -38600,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -38609,51 +36361,15 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
-      <c r="AE67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -38689,7 +36405,7 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -38703,46 +36419,10 @@
       <c r="S68">
         <v>0</v>
       </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -38793,48 +36473,12 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -38885,48 +36529,12 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -38953,13 +36561,13 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -38971,54 +36579,18 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>1</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -39033,13 +36605,13 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -39069,48 +36641,12 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -39161,48 +36697,12 @@
         <v>0</v>
       </c>
       <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>0</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
-      <c r="AE73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -39253,48 +36753,12 @@
         <v>0</v>
       </c>
       <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-      <c r="AC74">
-        <v>0</v>
-      </c>
-      <c r="AD74">
-        <v>0</v>
-      </c>
-      <c r="AE74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -39309,13 +36773,13 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -39345,48 +36809,12 @@
         <v>0</v>
       </c>
       <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -39437,48 +36865,12 @@
         <v>0</v>
       </c>
       <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <v>0</v>
-      </c>
-      <c r="AD76">
-        <v>0</v>
-      </c>
-      <c r="AE76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -39493,13 +36885,13 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -39529,48 +36921,12 @@
         <v>0</v>
       </c>
       <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <v>0</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77">
-        <v>0</v>
-      </c>
-      <c r="AE77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -39585,13 +36941,13 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -39621,48 +36977,12 @@
         <v>0</v>
       </c>
       <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -39713,48 +37033,12 @@
         <v>0</v>
       </c>
       <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <v>0</v>
-      </c>
-      <c r="AD79">
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -39805,48 +37089,12 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-      <c r="AD80">
-        <v>0</v>
-      </c>
-      <c r="AE80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -39861,13 +37109,13 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -39897,48 +37145,12 @@
         <v>0</v>
       </c>
       <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81">
-        <v>0</v>
-      </c>
-      <c r="AE81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -39989,54 +37201,18 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-      <c r="AD82">
-        <v>0</v>
-      </c>
-      <c r="AE82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -40045,13 +37221,13 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -40078,57 +37254,21 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
-        <v>1</v>
-      </c>
-      <c r="AE83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -40137,13 +37277,13 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -40170,57 +37310,21 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84">
-        <v>1</v>
-      </c>
-      <c r="AE84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -40229,13 +37333,13 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -40262,51 +37366,15 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
-      </c>
-      <c r="Y85">
-        <v>0</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>0</v>
-      </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85">
-        <v>1</v>
-      </c>
-      <c r="AE85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -40333,7 +37401,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -40359,46 +37427,10 @@
       <c r="S86">
         <v>0</v>
       </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>1</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
-        <v>0</v>
-      </c>
-      <c r="AE86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -40449,48 +37481,12 @@
         <v>0</v>
       </c>
       <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <v>0</v>
-      </c>
-      <c r="Y87">
-        <v>0</v>
-      </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
-      <c r="AA87">
-        <v>0</v>
-      </c>
-      <c r="AB87">
-        <v>0</v>
-      </c>
-      <c r="AC87">
-        <v>0</v>
-      </c>
-      <c r="AD87">
-        <v>0</v>
-      </c>
-      <c r="AE87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -40541,48 +37537,12 @@
         <v>0</v>
       </c>
       <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-      <c r="X88">
-        <v>0</v>
-      </c>
-      <c r="Y88">
-        <v>0</v>
-      </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
-      <c r="AA88">
-        <v>0</v>
-      </c>
-      <c r="AB88">
-        <v>0</v>
-      </c>
-      <c r="AC88">
-        <v>0</v>
-      </c>
-      <c r="AD88">
-        <v>0</v>
-      </c>
-      <c r="AE88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -40597,13 +37557,13 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -40633,54 +37593,18 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <v>0</v>
-      </c>
-      <c r="Y89">
-        <v>0</v>
-      </c>
-      <c r="Z89">
-        <v>0</v>
-      </c>
-      <c r="AA89">
-        <v>0</v>
-      </c>
-      <c r="AB89">
-        <v>0</v>
-      </c>
-      <c r="AC89">
-        <v>0</v>
-      </c>
-      <c r="AD89">
-        <v>0</v>
-      </c>
-      <c r="AE89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -40689,13 +37613,13 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -40722,51 +37646,15 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-      <c r="X90">
-        <v>0</v>
-      </c>
-      <c r="Y90">
-        <v>0</v>
-      </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
-      <c r="AA90">
-        <v>0</v>
-      </c>
-      <c r="AB90">
-        <v>0</v>
-      </c>
-      <c r="AC90">
-        <v>0</v>
-      </c>
-      <c r="AD90">
-        <v>1</v>
-      </c>
-      <c r="AE90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -40790,13 +37678,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -40814,51 +37702,15 @@
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S91">
         <v>0</v>
       </c>
-      <c r="T91">
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-      <c r="X91">
-        <v>0</v>
-      </c>
-      <c r="Y91">
-        <v>0</v>
-      </c>
-      <c r="Z91">
-        <v>0</v>
-      </c>
-      <c r="AA91">
-        <v>0</v>
-      </c>
-      <c r="AB91">
-        <v>0</v>
-      </c>
-      <c r="AC91">
-        <v>0</v>
-      </c>
-      <c r="AD91">
-        <v>0</v>
-      </c>
-      <c r="AE91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -40909,48 +37761,12 @@
         <v>0</v>
       </c>
       <c r="S92">
-        <v>0</v>
-      </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <v>0</v>
-      </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
-      <c r="Z92">
-        <v>0</v>
-      </c>
-      <c r="AA92">
-        <v>0</v>
-      </c>
-      <c r="AB92">
-        <v>0</v>
-      </c>
-      <c r="AC92">
-        <v>0</v>
-      </c>
-      <c r="AD92">
-        <v>0</v>
-      </c>
-      <c r="AE92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -40974,13 +37790,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -40998,57 +37814,21 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93">
         <v>0</v>
       </c>
-      <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-      <c r="X93">
-        <v>0</v>
-      </c>
-      <c r="Y93">
-        <v>0</v>
-      </c>
-      <c r="Z93">
-        <v>0</v>
-      </c>
-      <c r="AA93">
-        <v>0</v>
-      </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
-      <c r="AC93">
-        <v>0</v>
-      </c>
-      <c r="AD93">
-        <v>0</v>
-      </c>
-      <c r="AE93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -41066,7 +37846,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -41078,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -41087,54 +37867,18 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94">
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <v>1</v>
-      </c>
-      <c r="Y94">
-        <v>0</v>
-      </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
-      <c r="AA94">
-        <v>0</v>
-      </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
-      <c r="AC94">
-        <v>0</v>
-      </c>
-      <c r="AD94">
-        <v>0</v>
-      </c>
-      <c r="AE94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -41149,13 +37893,13 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -41185,48 +37929,12 @@
         <v>0</v>
       </c>
       <c r="S95">
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-      <c r="X95">
-        <v>0</v>
-      </c>
-      <c r="Y95">
-        <v>0</v>
-      </c>
-      <c r="Z95">
-        <v>0</v>
-      </c>
-      <c r="AA95">
-        <v>0</v>
-      </c>
-      <c r="AB95">
-        <v>0</v>
-      </c>
-      <c r="AC95">
-        <v>0</v>
-      </c>
-      <c r="AD95">
-        <v>0</v>
-      </c>
-      <c r="AE95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -41241,13 +37949,13 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -41277,54 +37985,18 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-      <c r="X96">
-        <v>0</v>
-      </c>
-      <c r="Y96">
-        <v>0</v>
-      </c>
-      <c r="Z96">
-        <v>0</v>
-      </c>
-      <c r="AA96">
-        <v>0</v>
-      </c>
-      <c r="AB96">
-        <v>0</v>
-      </c>
-      <c r="AC96">
-        <v>0</v>
-      </c>
-      <c r="AD96">
-        <v>0</v>
-      </c>
-      <c r="AE96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -41333,13 +38005,13 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -41366,51 +38038,15 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>0</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>0</v>
-      </c>
-      <c r="Y97">
-        <v>0</v>
-      </c>
-      <c r="Z97">
-        <v>0</v>
-      </c>
-      <c r="AA97">
-        <v>0</v>
-      </c>
-      <c r="AB97">
-        <v>0</v>
-      </c>
-      <c r="AC97">
-        <v>0</v>
-      </c>
-      <c r="AD97">
-        <v>1</v>
-      </c>
-      <c r="AE97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -41425,13 +38061,13 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -41461,48 +38097,12 @@
         <v>0</v>
       </c>
       <c r="S98">
-        <v>0</v>
-      </c>
-      <c r="T98">
-        <v>0</v>
-      </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-      <c r="X98">
-        <v>0</v>
-      </c>
-      <c r="Y98">
-        <v>0</v>
-      </c>
-      <c r="Z98">
-        <v>0</v>
-      </c>
-      <c r="AA98">
-        <v>0</v>
-      </c>
-      <c r="AB98">
-        <v>0</v>
-      </c>
-      <c r="AC98">
-        <v>0</v>
-      </c>
-      <c r="AD98">
-        <v>0</v>
-      </c>
-      <c r="AE98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -41517,13 +38117,13 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -41553,48 +38153,12 @@
         <v>0</v>
       </c>
       <c r="S99">
-        <v>0</v>
-      </c>
-      <c r="T99">
-        <v>0</v>
-      </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-      <c r="X99">
-        <v>0</v>
-      </c>
-      <c r="Y99">
-        <v>0</v>
-      </c>
-      <c r="Z99">
-        <v>0</v>
-      </c>
-      <c r="AA99">
-        <v>0</v>
-      </c>
-      <c r="AB99">
-        <v>0</v>
-      </c>
-      <c r="AC99">
-        <v>0</v>
-      </c>
-      <c r="AD99">
-        <v>0</v>
-      </c>
-      <c r="AE99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -41609,13 +38173,13 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -41645,48 +38209,12 @@
         <v>0</v>
       </c>
       <c r="S100">
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-      <c r="X100">
-        <v>0</v>
-      </c>
-      <c r="Y100">
-        <v>0</v>
-      </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
-        <v>0</v>
-      </c>
-      <c r="AB100">
-        <v>0</v>
-      </c>
-      <c r="AC100">
-        <v>0</v>
-      </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
-      <c r="AE100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -41701,13 +38229,13 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -41737,48 +38265,12 @@
         <v>0</v>
       </c>
       <c r="S101">
-        <v>0</v>
-      </c>
-      <c r="T101">
-        <v>0</v>
-      </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
-      <c r="V101">
-        <v>0</v>
-      </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-      <c r="X101">
-        <v>0</v>
-      </c>
-      <c r="Y101">
-        <v>0</v>
-      </c>
-      <c r="Z101">
-        <v>0</v>
-      </c>
-      <c r="AA101">
-        <v>0</v>
-      </c>
-      <c r="AB101">
-        <v>0</v>
-      </c>
-      <c r="AC101">
-        <v>0</v>
-      </c>
-      <c r="AD101">
-        <v>0</v>
-      </c>
-      <c r="AE101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -41829,48 +38321,12 @@
         <v>0</v>
       </c>
       <c r="S102">
-        <v>0</v>
-      </c>
-      <c r="T102">
-        <v>0</v>
-      </c>
-      <c r="U102">
-        <v>0</v>
-      </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-      <c r="X102">
-        <v>0</v>
-      </c>
-      <c r="Y102">
-        <v>0</v>
-      </c>
-      <c r="Z102">
-        <v>0</v>
-      </c>
-      <c r="AA102">
-        <v>0</v>
-      </c>
-      <c r="AB102">
-        <v>0</v>
-      </c>
-      <c r="AC102">
-        <v>0</v>
-      </c>
-      <c r="AD102">
-        <v>0</v>
-      </c>
-      <c r="AE102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -41921,48 +38377,12 @@
         <v>0</v>
       </c>
       <c r="S103">
-        <v>0</v>
-      </c>
-      <c r="T103">
-        <v>0</v>
-      </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
-      <c r="W103">
-        <v>0</v>
-      </c>
-      <c r="X103">
-        <v>0</v>
-      </c>
-      <c r="Y103">
-        <v>0</v>
-      </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
-        <v>0</v>
-      </c>
-      <c r="AB103">
-        <v>0</v>
-      </c>
-      <c r="AC103">
-        <v>0</v>
-      </c>
-      <c r="AD103">
-        <v>0</v>
-      </c>
-      <c r="AE103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -42013,48 +38433,12 @@
         <v>0</v>
       </c>
       <c r="S104">
-        <v>0</v>
-      </c>
-      <c r="T104">
-        <v>0</v>
-      </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-      <c r="V104">
-        <v>0</v>
-      </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-      <c r="X104">
-        <v>0</v>
-      </c>
-      <c r="Y104">
-        <v>0</v>
-      </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
-        <v>0</v>
-      </c>
-      <c r="AB104">
-        <v>0</v>
-      </c>
-      <c r="AC104">
-        <v>0</v>
-      </c>
-      <c r="AD104">
-        <v>0</v>
-      </c>
-      <c r="AE104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -42105,48 +38489,12 @@
         <v>0</v>
       </c>
       <c r="S105">
-        <v>0</v>
-      </c>
-      <c r="T105">
-        <v>0</v>
-      </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-      <c r="X105">
-        <v>0</v>
-      </c>
-      <c r="Y105">
-        <v>0</v>
-      </c>
-      <c r="Z105">
-        <v>0</v>
-      </c>
-      <c r="AA105">
-        <v>0</v>
-      </c>
-      <c r="AB105">
-        <v>0</v>
-      </c>
-      <c r="AC105">
-        <v>0</v>
-      </c>
-      <c r="AD105">
-        <v>0</v>
-      </c>
-      <c r="AE105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -42197,48 +38545,12 @@
         <v>0</v>
       </c>
       <c r="S106">
-        <v>0</v>
-      </c>
-      <c r="T106">
-        <v>0</v>
-      </c>
-      <c r="U106">
-        <v>0</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-      <c r="X106">
-        <v>0</v>
-      </c>
-      <c r="Y106">
-        <v>0</v>
-      </c>
-      <c r="Z106">
-        <v>0</v>
-      </c>
-      <c r="AA106">
-        <v>0</v>
-      </c>
-      <c r="AB106">
-        <v>0</v>
-      </c>
-      <c r="AC106">
-        <v>0</v>
-      </c>
-      <c r="AD106">
-        <v>0</v>
-      </c>
-      <c r="AE106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -42265,7 +38577,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -42286,51 +38598,15 @@
         <v>0</v>
       </c>
       <c r="R107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S107">
-        <v>0</v>
-      </c>
-      <c r="T107">
-        <v>0</v>
-      </c>
-      <c r="U107">
-        <v>0</v>
-      </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
-      <c r="W107">
-        <v>1</v>
-      </c>
-      <c r="X107">
-        <v>0</v>
-      </c>
-      <c r="Y107">
-        <v>0</v>
-      </c>
-      <c r="Z107">
-        <v>0</v>
-      </c>
-      <c r="AA107">
-        <v>0</v>
-      </c>
-      <c r="AB107">
-        <v>1</v>
-      </c>
-      <c r="AC107">
-        <v>0</v>
-      </c>
-      <c r="AD107">
-        <v>0</v>
-      </c>
-      <c r="AE107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -42339,7 +38615,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -42360,10 +38636,10 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -42372,10 +38648,10 @@
         <v>0</v>
       </c>
       <c r="P108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -42383,46 +38659,10 @@
       <c r="S108">
         <v>0</v>
       </c>
-      <c r="T108">
-        <v>1</v>
-      </c>
-      <c r="U108">
-        <v>0</v>
-      </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-      <c r="X108">
-        <v>0</v>
-      </c>
-      <c r="Y108">
-        <v>0</v>
-      </c>
-      <c r="Z108">
-        <v>0</v>
-      </c>
-      <c r="AA108">
-        <v>0</v>
-      </c>
-      <c r="AB108">
-        <v>0</v>
-      </c>
-      <c r="AC108">
-        <v>0</v>
-      </c>
-      <c r="AD108">
-        <v>0</v>
-      </c>
-      <c r="AE108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -42437,13 +38677,13 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -42473,48 +38713,12 @@
         <v>0</v>
       </c>
       <c r="S109">
-        <v>0</v>
-      </c>
-      <c r="T109">
-        <v>0</v>
-      </c>
-      <c r="U109">
-        <v>0</v>
-      </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-      <c r="X109">
-        <v>0</v>
-      </c>
-      <c r="Y109">
-        <v>0</v>
-      </c>
-      <c r="Z109">
-        <v>0</v>
-      </c>
-      <c r="AA109">
-        <v>0</v>
-      </c>
-      <c r="AB109">
-        <v>0</v>
-      </c>
-      <c r="AC109">
-        <v>0</v>
-      </c>
-      <c r="AD109">
-        <v>0</v>
-      </c>
-      <c r="AE109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -42565,48 +38769,12 @@
         <v>0</v>
       </c>
       <c r="S110">
-        <v>0</v>
-      </c>
-      <c r="T110">
-        <v>0</v>
-      </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-      <c r="X110">
-        <v>0</v>
-      </c>
-      <c r="Y110">
-        <v>0</v>
-      </c>
-      <c r="Z110">
-        <v>0</v>
-      </c>
-      <c r="AA110">
-        <v>0</v>
-      </c>
-      <c r="AB110">
-        <v>0</v>
-      </c>
-      <c r="AC110">
-        <v>0</v>
-      </c>
-      <c r="AD110">
-        <v>0</v>
-      </c>
-      <c r="AE110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -42657,48 +38825,12 @@
         <v>0</v>
       </c>
       <c r="S111">
-        <v>0</v>
-      </c>
-      <c r="T111">
-        <v>0</v>
-      </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-      <c r="X111">
-        <v>0</v>
-      </c>
-      <c r="Y111">
-        <v>0</v>
-      </c>
-      <c r="Z111">
-        <v>0</v>
-      </c>
-      <c r="AA111">
-        <v>0</v>
-      </c>
-      <c r="AB111">
-        <v>0</v>
-      </c>
-      <c r="AC111">
-        <v>0</v>
-      </c>
-      <c r="AD111">
-        <v>0</v>
-      </c>
-      <c r="AE111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -42749,48 +38881,12 @@
         <v>0</v>
       </c>
       <c r="S112">
-        <v>0</v>
-      </c>
-      <c r="T112">
-        <v>0</v>
-      </c>
-      <c r="U112">
-        <v>0</v>
-      </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-      <c r="X112">
-        <v>0</v>
-      </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
-      <c r="AA112">
-        <v>0</v>
-      </c>
-      <c r="AB112">
-        <v>0</v>
-      </c>
-      <c r="AC112">
-        <v>0</v>
-      </c>
-      <c r="AD112">
-        <v>0</v>
-      </c>
-      <c r="AE112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -42841,48 +38937,12 @@
         <v>0</v>
       </c>
       <c r="S113">
-        <v>0</v>
-      </c>
-      <c r="T113">
-        <v>0</v>
-      </c>
-      <c r="U113">
-        <v>0</v>
-      </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-      <c r="X113">
-        <v>0</v>
-      </c>
-      <c r="Y113">
-        <v>0</v>
-      </c>
-      <c r="Z113">
-        <v>0</v>
-      </c>
-      <c r="AA113">
-        <v>0</v>
-      </c>
-      <c r="AB113">
-        <v>0</v>
-      </c>
-      <c r="AC113">
-        <v>0</v>
-      </c>
-      <c r="AD113">
-        <v>0</v>
-      </c>
-      <c r="AE113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -42909,10 +38969,10 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -42924,63 +38984,27 @@
         <v>0</v>
       </c>
       <c r="P114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114">
-        <v>0</v>
-      </c>
-      <c r="T114">
-        <v>1</v>
-      </c>
-      <c r="U114">
-        <v>0</v>
-      </c>
-      <c r="V114">
-        <v>0</v>
-      </c>
-      <c r="W114">
-        <v>1</v>
-      </c>
-      <c r="X114">
-        <v>0</v>
-      </c>
-      <c r="Y114">
-        <v>0</v>
-      </c>
-      <c r="Z114">
-        <v>0</v>
-      </c>
-      <c r="AA114">
-        <v>0</v>
-      </c>
-      <c r="AB114">
-        <v>1</v>
-      </c>
-      <c r="AC114">
-        <v>0</v>
-      </c>
-      <c r="AD114">
-        <v>0</v>
-      </c>
-      <c r="AE114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -42989,13 +39013,13 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -43022,57 +39046,21 @@
         <v>0</v>
       </c>
       <c r="R115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S115">
-        <v>0</v>
-      </c>
-      <c r="T115">
-        <v>0</v>
-      </c>
-      <c r="U115">
-        <v>0</v>
-      </c>
-      <c r="V115">
-        <v>0</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <v>0</v>
-      </c>
-      <c r="Y115">
-        <v>0</v>
-      </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
-      <c r="AA115">
-        <v>0</v>
-      </c>
-      <c r="AB115">
-        <v>0</v>
-      </c>
-      <c r="AC115">
-        <v>0</v>
-      </c>
-      <c r="AD115">
-        <v>1</v>
-      </c>
-      <c r="AE115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -43081,13 +39069,13 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -43114,57 +39102,21 @@
         <v>0</v>
       </c>
       <c r="R116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S116">
-        <v>0</v>
-      </c>
-      <c r="T116">
-        <v>0</v>
-      </c>
-      <c r="U116">
-        <v>0</v>
-      </c>
-      <c r="V116">
-        <v>0</v>
-      </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-      <c r="X116">
-        <v>0</v>
-      </c>
-      <c r="Y116">
-        <v>0</v>
-      </c>
-      <c r="Z116">
-        <v>0</v>
-      </c>
-      <c r="AA116">
-        <v>0</v>
-      </c>
-      <c r="AB116">
-        <v>0</v>
-      </c>
-      <c r="AC116">
-        <v>0</v>
-      </c>
-      <c r="AD116">
-        <v>1</v>
-      </c>
-      <c r="AE116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -43173,13 +39125,13 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -43206,45 +39158,9 @@
         <v>0</v>
       </c>
       <c r="R117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117">
-        <v>0</v>
-      </c>
-      <c r="T117">
-        <v>0</v>
-      </c>
-      <c r="U117">
-        <v>0</v>
-      </c>
-      <c r="V117">
-        <v>0</v>
-      </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
-      <c r="AA117">
-        <v>0</v>
-      </c>
-      <c r="AB117">
-        <v>0</v>
-      </c>
-      <c r="AC117">
-        <v>0</v>
-      </c>
-      <c r="AD117">
-        <v>1</v>
-      </c>
-      <c r="AE117">
         <v>1</v>
       </c>
     </row>

--- a/spreadcheek.xlsx
+++ b/spreadcheek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dipl\diplomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BAA11A-D6B8-48A4-9B59-31AB30B5F48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92965AD-4BE7-48AC-872B-438BC01D9B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="360" windowWidth="23055" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="оригинальный продууукт" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="304">
   <si>
     <t>продолжительность</t>
   </si>
@@ -610,9 +610,6 @@
     <t xml:space="preserve">Кемь </t>
   </si>
   <si>
-    <t>предоставляется</t>
-  </si>
-  <si>
     <t>"Соловки Отель", "Соловецкая Слобода"</t>
   </si>
   <si>
@@ -686,9 +683,6 @@
   </si>
   <si>
     <t>база отдыха "Карелия"</t>
-  </si>
-  <si>
-    <t>Природа, активный отдых</t>
   </si>
   <si>
     <t>История, религия, природа</t>
@@ -2113,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2226,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>91</v>
@@ -2305,7 +2299,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>91</v>
@@ -2378,7 +2372,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>91</v>
@@ -2451,7 +2445,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>91</v>
@@ -2524,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>91</v>
@@ -2597,10 +2591,10 @@
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>62</v>
@@ -2670,7 +2664,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>91</v>
@@ -2743,10 +2737,10 @@
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>64</v>
@@ -2813,7 +2807,7 @@
         <v>2400</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>91</v>
@@ -2883,7 +2877,7 @@
         <v>3400</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>91</v>
@@ -2953,7 +2947,7 @@
         <v>5000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>91</v>
@@ -3024,10 +3018,10 @@
         <v>63400</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>64</v>
@@ -3091,7 +3085,7 @@
         <v>900</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>91</v>
@@ -3161,7 +3155,7 @@
         <v>2300</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>91</v>
@@ -3225,7 +3219,7 @@
         <v>2000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>91</v>
@@ -3295,7 +3289,7 @@
         <v>10000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>91</v>
@@ -3368,7 +3362,7 @@
         <v>7300</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>91</v>
@@ -3438,10 +3432,10 @@
         <v>2000</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>48</v>
@@ -3502,13 +3496,13 @@
         <v>2500</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>79</v>
@@ -3569,7 +3563,7 @@
         <v>7500</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>91</v>
@@ -3633,13 +3627,13 @@
         <v>7900</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>81</v>
@@ -3697,7 +3691,7 @@
         <v>3300</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>91</v>
@@ -3767,7 +3761,7 @@
         <v>6500</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>91</v>
@@ -3825,7 +3819,7 @@
         <v>136</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -3837,10 +3831,10 @@
         <v>47500</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>64</v>
@@ -3907,10 +3901,10 @@
         <v>2500</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>88</v>
@@ -3974,7 +3968,7 @@
         <v>7000</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>91</v>
@@ -3983,7 +3977,7 @@
         <v>91</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>26</v>
@@ -4041,10 +4035,10 @@
         <v>32900</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>64</v>
@@ -4111,7 +4105,7 @@
         <v>65000</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>91</v>
@@ -4181,7 +4175,7 @@
         <v>49000</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>91</v>
@@ -4248,7 +4242,7 @@
         <v>36800</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>91</v>
@@ -4315,7 +4309,7 @@
         <v>42800</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>91</v>
@@ -4382,7 +4376,7 @@
         <v>34500</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>91</v>
@@ -4449,7 +4443,7 @@
         <v>109</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>91</v>
@@ -4516,7 +4510,7 @@
         <v>109</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>91</v>
@@ -4583,7 +4577,7 @@
         <v>15000</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>91</v>
@@ -4653,7 +4647,7 @@
         <v>17300</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>124</v>
@@ -4723,7 +4717,7 @@
         <v>23900</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>91</v>
@@ -4790,7 +4784,7 @@
         <v>27000</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>124</v>
@@ -4857,7 +4851,7 @@
         <v>20400</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>91</v>
@@ -4924,7 +4918,7 @@
         <v>17800</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>124</v>
@@ -4991,7 +4985,7 @@
         <v>14100</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>124</v>
@@ -5058,10 +5052,10 @@
         <v>31800</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>48</v>
@@ -5125,10 +5119,10 @@
         <v>26500</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>130</v>
@@ -5192,10 +5186,10 @@
         <v>33500</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>130</v>
@@ -5259,10 +5253,10 @@
         <v>26900</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>135</v>
@@ -5327,7 +5321,7 @@
       </c>
       <c r="E47" s="3"/>
       <c r="G47" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>91</v>
@@ -5394,7 +5388,7 @@
         <v>142</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>91</v>
@@ -5461,7 +5455,7 @@
         <v>148</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>91</v>
@@ -5531,7 +5525,7 @@
         <v>154</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>91</v>
@@ -5598,7 +5592,7 @@
         <v>156</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>91</v>
@@ -5656,7 +5650,7 @@
         <v>28350</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>91</v>
@@ -5686,7 +5680,7 @@
         <v>29</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>67</v>
@@ -5720,7 +5714,7 @@
         <v>28350</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>91</v>
@@ -5729,7 +5723,7 @@
         <v>62</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>80</v>
@@ -5750,7 +5744,7 @@
         <v>29</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>67</v>
@@ -5787,7 +5781,7 @@
         <v>32500</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>91</v>
@@ -5817,7 +5811,7 @@
         <v>29</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>67</v>
@@ -5851,13 +5845,13 @@
         <v>29750</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>61</v>
@@ -5866,7 +5860,7 @@
         <v>26</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>27</v>
@@ -5875,7 +5869,7 @@
         <v>25</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>29</v>
@@ -5893,7 +5887,7 @@
         <v>25</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5918,13 +5912,13 @@
         <v>32400</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>61</v>
@@ -5933,7 +5927,7 @@
         <v>26</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>27</v>
@@ -5942,7 +5936,7 @@
         <v>25</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>29</v>
@@ -5960,7 +5954,7 @@
         <v>25</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5985,13 +5979,13 @@
         <v>27700</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>61</v>
@@ -6015,7 +6009,7 @@
         <v>29</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>67</v>
@@ -6027,7 +6021,7 @@
         <v>25</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6052,13 +6046,13 @@
         <v>20650</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>61</v>
@@ -6079,10 +6073,10 @@
         <v>28</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>67</v>
@@ -6094,7 +6088,7 @@
         <v>25</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6119,13 +6113,13 @@
         <v>12800</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>61</v>
@@ -6149,7 +6143,7 @@
         <v>29</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>67</v>
@@ -6161,10 +6155,10 @@
         <v>25</v>
       </c>
       <c r="U59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V59" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="X59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6186,7 +6180,7 @@
         <v>27500</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>124</v>
@@ -6250,7 +6244,7 @@
         <v>30500</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>91</v>
@@ -6314,7 +6308,7 @@
         <v>15900</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>91</v>
@@ -6344,7 +6338,7 @@
         <v>29</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>125</v>
@@ -6381,7 +6375,7 @@
         <v>14800</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>91</v>
@@ -6414,7 +6408,7 @@
         <v>121</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>33</v>
@@ -6423,7 +6417,7 @@
         <v>25</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6448,16 +6442,16 @@
         <v>5000</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>26</v>
@@ -6481,7 +6475,7 @@
         <v>41</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>33</v>
@@ -6490,7 +6484,7 @@
         <v>25</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6512,7 +6506,7 @@
         <v>8900</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>91</v>
@@ -6557,7 +6551,7 @@
         <v>63</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X65" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6582,7 +6576,7 @@
         <v>12500</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>91</v>
@@ -6652,7 +6646,7 @@
         <v>21500</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>91</v>
@@ -6682,7 +6676,7 @@
         <v>29</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>67</v>
@@ -6716,19 +6710,19 @@
         <v>2900</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>36</v>
@@ -6740,13 +6734,13 @@
         <v>25</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q68" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>67</v>
@@ -6783,7 +6777,7 @@
         <v>2800</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>91</v>
@@ -6792,7 +6786,7 @@
         <v>62</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>80</v>
@@ -6841,13 +6835,13 @@
         <v>187</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D70" s="1">
         <v>39000</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>91</v>
@@ -6856,10 +6850,10 @@
         <v>62</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>36</v>
@@ -6871,13 +6865,13 @@
         <v>25</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>67</v>
@@ -6889,7 +6883,7 @@
         <v>25</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X70" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6914,16 +6908,16 @@
         <v>16800</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>26</v>
@@ -6981,7 +6975,7 @@
         <v>34500</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>91</v>
@@ -6990,7 +6984,7 @@
         <v>108</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>40</v>
@@ -7023,7 +7017,7 @@
         <v>25</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="X72" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7045,7 +7039,7 @@
         <v>7000</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>91</v>
@@ -7054,7 +7048,7 @@
         <v>62</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>40</v>
@@ -7069,7 +7063,7 @@
         <v>25</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>29</v>
@@ -7109,7 +7103,7 @@
         <v>7700</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>91</v>
@@ -7118,7 +7112,7 @@
         <v>62</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>36</v>
@@ -7167,7 +7161,7 @@
         <v>201</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>122</v>
@@ -7176,7 +7170,7 @@
         <v>14100</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>91</v>
@@ -7203,13 +7197,13 @@
         <v>28</v>
       </c>
       <c r="P75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R75" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>33</v>
@@ -7218,7 +7212,7 @@
         <v>25</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X75" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7243,7 +7237,7 @@
         <v>9500</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>91</v>
@@ -7273,7 +7267,7 @@
         <v>29</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>67</v>
@@ -7285,7 +7279,7 @@
         <v>25</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X76" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7307,7 +7301,7 @@
         <v>18800</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>91</v>
@@ -7334,13 +7328,13 @@
         <v>28</v>
       </c>
       <c r="P77" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R77" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>33</v>
@@ -7371,7 +7365,7 @@
         <v>18800</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>91</v>
@@ -7398,13 +7392,13 @@
         <v>28</v>
       </c>
       <c r="P78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R78" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="S78" s="1" t="s">
         <v>33</v>
@@ -7435,7 +7429,7 @@
         <v>18000</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>91</v>
@@ -7462,13 +7456,13 @@
         <v>28</v>
       </c>
       <c r="P79" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R79" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>33</v>
@@ -7499,7 +7493,7 @@
         <v>21400</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>91</v>
@@ -7508,7 +7502,7 @@
         <v>62</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>26</v>
@@ -7526,13 +7520,13 @@
         <v>28</v>
       </c>
       <c r="P80" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R80" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>33</v>
@@ -7563,7 +7557,7 @@
         <v>26500</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>91</v>
@@ -7572,7 +7566,7 @@
         <v>108</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>26</v>
@@ -7590,13 +7584,13 @@
         <v>28</v>
       </c>
       <c r="P81" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R81" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="S81" s="1" t="s">
         <v>33</v>
@@ -7627,7 +7621,7 @@
         <v>21500</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>91</v>
@@ -7691,13 +7685,13 @@
         <v>19000</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>81</v>
@@ -7721,7 +7715,7 @@
         <v>29</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R83" s="1" t="s">
         <v>67</v>
@@ -7733,10 +7727,10 @@
         <v>25</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X83" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7752,19 +7746,19 @@
         <v>210</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D84" s="1">
         <v>14600</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>81</v>
@@ -7788,7 +7782,7 @@
         <v>29</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R84" s="1" t="s">
         <v>67</v>
@@ -7800,10 +7794,10 @@
         <v>25</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X84" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7825,13 +7819,13 @@
         <v>19900</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>81</v>
@@ -7855,7 +7849,7 @@
         <v>29</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>67</v>
@@ -7867,10 +7861,10 @@
         <v>25</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X85" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7895,19 +7889,19 @@
         <v>5000</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="J86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>36</v>
@@ -7928,7 +7922,7 @@
         <v>41</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>33</v>
@@ -7959,7 +7953,7 @@
         <v>19700</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>91</v>
@@ -7986,13 +7980,13 @@
         <v>28</v>
       </c>
       <c r="P87" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R87" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="S87" s="1" t="s">
         <v>33</v>
@@ -8023,7 +8017,7 @@
         <v>19900</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>91</v>
@@ -8050,13 +8044,13 @@
         <v>28</v>
       </c>
       <c r="P88" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R88" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>33</v>
@@ -8087,7 +8081,7 @@
         <v>24000</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>91</v>
@@ -8102,7 +8096,7 @@
         <v>26</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>27</v>
@@ -8117,7 +8111,7 @@
         <v>29</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R89" s="1" t="s">
         <v>67</v>
@@ -8129,10 +8123,10 @@
         <v>25</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X89" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8154,13 +8148,13 @@
         <v>22000</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>81</v>
@@ -8169,7 +8163,7 @@
         <v>26</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>27</v>
@@ -8178,13 +8172,13 @@
         <v>25</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>67</v>
@@ -8196,10 +8190,10 @@
         <v>25</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X90" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8215,7 +8209,7 @@
         <v>218</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>7</v>
@@ -8224,16 +8218,16 @@
         <v>7800</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>36</v>
@@ -8248,7 +8242,7 @@
         <v>25</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>29</v>
@@ -8263,7 +8257,7 @@
         <v>25</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="X91" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8288,7 +8282,7 @@
         <v>15600</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>91</v>
@@ -8315,13 +8309,13 @@
         <v>28</v>
       </c>
       <c r="P92" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R92" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>33</v>
@@ -8358,10 +8352,10 @@
         <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>36</v>
@@ -8382,7 +8376,7 @@
         <v>29</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R93" s="1" t="s">
         <v>67</v>
@@ -8394,7 +8388,7 @@
         <v>25</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X93" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8422,16 +8416,16 @@
         <v>2600</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>36</v>
@@ -8464,7 +8458,7 @@
         <v>25</v>
       </c>
       <c r="U94" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X94" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8491,7 +8485,7 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>91</v>
@@ -8500,13 +8494,13 @@
         <v>108</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>27</v>
@@ -8521,7 +8515,7 @@
         <v>29</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R95" s="1" t="s">
         <v>67</v>
@@ -8533,10 +8527,10 @@
         <v>25</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="X95" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8552,7 +8546,7 @@
         <v>223</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>7</v>
@@ -8563,7 +8557,7 @@
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>91</v>
@@ -8572,13 +8566,13 @@
         <v>108</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>27</v>
@@ -8587,13 +8581,13 @@
         <v>25</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>67</v>
@@ -8605,10 +8599,10 @@
         <v>25</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="X96" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8635,16 +8629,16 @@
       <c r="E97"/>
       <c r="F97"/>
       <c r="G97" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>26</v>
@@ -8665,7 +8659,7 @@
         <v>29</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R97" s="1" t="s">
         <v>67</v>
@@ -8677,10 +8671,10 @@
         <v>25</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="X97" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8696,7 +8690,7 @@
         <v>225</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>7</v>
@@ -8707,7 +8701,7 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>91</v>
@@ -8716,13 +8710,13 @@
         <v>108</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>27</v>
@@ -8737,7 +8731,7 @@
         <v>29</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R98" s="1" t="s">
         <v>67</v>
@@ -8749,7 +8743,7 @@
         <v>25</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V98" s="1" t="s">
         <v>116</v>
@@ -8777,7 +8771,7 @@
         <v>27000</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>91</v>
@@ -8807,7 +8801,7 @@
         <v>29</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R99" s="1" t="s">
         <v>67</v>
@@ -8819,7 +8813,7 @@
         <v>25</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X99" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8844,7 +8838,7 @@
         <v>17900</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>91</v>
@@ -8874,7 +8868,7 @@
         <v>29</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R100" s="1" t="s">
         <v>67</v>
@@ -8886,7 +8880,7 @@
         <v>25</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="X100" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8911,7 +8905,7 @@
         <v>23400</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>91</v>
@@ -8941,7 +8935,7 @@
         <v>29</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R101" s="1" t="s">
         <v>67</v>
@@ -8953,7 +8947,7 @@
         <v>25</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X101" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8969,7 +8963,7 @@
         <v>230</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>32</v>
@@ -9023,7 +9017,7 @@
         <v>25</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="X102" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9039,7 +9033,7 @@
         <v>231</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>7</v>
@@ -9052,7 +9046,7 @@
         <v>60100</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>91</v>
@@ -9061,7 +9055,7 @@
         <v>62</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>26</v>
@@ -9079,10 +9073,10 @@
         <v>28</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R103" s="1" t="s">
         <v>67</v>
@@ -9119,7 +9113,7 @@
         <v>33650</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>91</v>
@@ -9128,7 +9122,7 @@
         <v>62</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>26</v>
@@ -9149,7 +9143,7 @@
         <v>29</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R104" s="1" t="s">
         <v>67</v>
@@ -9177,7 +9171,7 @@
         <v>233</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>7</v>
@@ -9186,7 +9180,7 @@
         <v>53750</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>91</v>
@@ -9195,7 +9189,7 @@
         <v>62</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>26</v>
@@ -9216,7 +9210,7 @@
         <v>29</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R105" s="1" t="s">
         <v>67</v>
@@ -9228,7 +9222,7 @@
         <v>25</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="X105" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9253,16 +9247,16 @@
         <v>22500</v>
       </c>
       <c r="G106" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>26</v>
@@ -9280,10 +9274,10 @@
         <v>28</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S106" s="1" t="s">
         <v>33</v>
@@ -9317,7 +9311,7 @@
         <v>32600</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>91</v>
@@ -9359,7 +9353,7 @@
         <v>25</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="X107" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9381,7 +9375,7 @@
         <v>12700</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>91</v>
@@ -9411,7 +9405,7 @@
         <v>29</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R108" s="1" t="s">
         <v>67</v>
@@ -9445,7 +9439,7 @@
         <v>20500</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>91</v>
@@ -9475,7 +9469,7 @@
         <v>29</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R109" s="1" t="s">
         <v>67</v>
@@ -9512,7 +9506,7 @@
         <v>24200</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>91</v>
@@ -9542,7 +9536,7 @@
         <v>29</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R110" s="1" t="s">
         <v>67</v>
@@ -9579,7 +9573,7 @@
         <v>18700</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>91</v>
@@ -9609,7 +9603,7 @@
         <v>29</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R111" s="1" t="s">
         <v>67</v>
@@ -9643,7 +9637,7 @@
         <v>6850</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>91</v>
@@ -9652,7 +9646,7 @@
         <v>62</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>40</v>
@@ -9707,7 +9701,7 @@
         <v>5500</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>91</v>
@@ -9716,7 +9710,7 @@
         <v>62</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>40</v>
@@ -9774,13 +9768,13 @@
         <v>19450</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>61</v>
@@ -9798,13 +9792,13 @@
         <v>25</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P114" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R114" s="1" t="s">
         <v>67</v>
@@ -9838,13 +9832,13 @@
         <v>23350</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>61</v>
@@ -9862,13 +9856,13 @@
         <v>25</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P115" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R115" s="1" t="s">
         <v>67</v>
@@ -9880,7 +9874,7 @@
         <v>25</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X115" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9902,13 +9896,13 @@
         <v>20300</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>61</v>
@@ -9932,7 +9926,7 @@
         <v>29</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R116" s="1" t="s">
         <v>67</v>
@@ -9966,13 +9960,13 @@
         <v>26350</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>61</v>
@@ -9990,13 +9984,13 @@
         <v>25</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P117" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R117" s="1" t="s">
         <v>67</v>
@@ -10008,7 +10002,7 @@
         <v>25</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X117" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10045,43 +10039,43 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>73</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -17093,7 +17087,7 @@
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>8</v>
@@ -17133,7 +17127,7 @@
         <v>16</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -17153,7 +17147,7 @@
         <v>21</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -17168,29 +17162,29 @@
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="I2" t="s">
-        <v>281</v>
-      </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -17199,13 +17193,13 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S2" t="s">
         <v>36</v>
@@ -17217,37 +17211,37 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Y2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z2" t="s">
         <v>29</v>
       </c>
       <c r="AB2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD2" t="s">
         <v>265</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>266</v>
       </c>
-      <c r="AD2" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>268</v>
-      </c>
       <c r="AH2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AI2" t="s">
         <v>43</v>
       </c>
       <c r="AJ2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AK2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -32556,27 +32550,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -32617,49 +32611,49 @@
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" t="s">
         <v>295</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>296</v>
       </c>
-      <c r="F1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>297</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>298</v>
-      </c>
-      <c r="J1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K1" t="s">
-        <v>300</v>
       </c>
       <c r="L1" t="s">
         <v>91</v>
       </c>
       <c r="M1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N1" t="s">
+        <v>300</v>
+      </c>
+      <c r="O1" t="s">
         <v>301</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>302</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>303</v>
-      </c>
-      <c r="P1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>305</v>
       </c>
       <c r="R1" t="s">
         <v>88</v>
